--- a/results/mp/tinybert/corona/confidence/84/0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,67 +55,67 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
+    <t>great</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>care</t>
   </si>
   <si>
     <t>like</t>
@@ -124,13 +124,25 @@
     <t>help</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>co</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -488,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,7 +511,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -557,13 +569,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -575,19 +587,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -607,13 +619,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6948051948051948</v>
+        <v>0.5924657534246576</v>
       </c>
       <c r="C4">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="D4">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -625,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -649,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -657,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3218884120171674</v>
+        <v>0.1841085271317829</v>
       </c>
       <c r="C5">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -675,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>158</v>
+        <v>421</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -699,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -707,13 +719,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2325581395348837</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -725,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -749,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -757,13 +769,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.925</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -775,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -783,13 +795,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8627450980392157</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -809,13 +821,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8627450980392157</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -827,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -835,13 +847,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8518518518518519</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -853,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -861,13 +873,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.8046875</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -879,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -887,13 +899,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -905,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -913,13 +925,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7678571428571429</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L13">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="M13">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -931,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -939,13 +951,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7413793103448276</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L14">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -957,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -965,13 +977,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7272727272727273</v>
+        <v>0.7125</v>
       </c>
       <c r="L15">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="M15">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -983,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -991,13 +1003,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7241379310344828</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1009,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1017,13 +1029,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6986301369863014</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L17">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M17">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1035,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1043,13 +1055,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6923076923076923</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1061,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1069,13 +1081,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1087,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1095,13 +1107,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.64</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1113,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1121,13 +1133,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1139,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1147,13 +1159,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5305164319248826</v>
+        <v>0.4934725848563969</v>
       </c>
       <c r="L22">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="M22">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1165,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>100</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1173,13 +1185,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1191,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1199,13 +1211,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4930555555555556</v>
+        <v>0.4529411764705882</v>
       </c>
       <c r="L24">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="M24">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1217,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>73</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1225,13 +1237,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4806201550387597</v>
+        <v>0.4169491525423729</v>
       </c>
       <c r="L25">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="M25">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1243,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>67</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1251,13 +1263,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4673913043478261</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L26">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1269,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1277,13 +1289,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4666666666666667</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1295,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1303,13 +1315,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.4285714285714285</v>
+        <v>0.3556485355648535</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1321,7 +1333,111 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29">
+        <v>0.009011908593498551</v>
+      </c>
+      <c r="L29">
+        <v>28</v>
+      </c>
+      <c r="M29">
+        <v>28</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>0.007167630057803468</v>
+      </c>
+      <c r="L30">
+        <v>31</v>
+      </c>
+      <c r="M30">
+        <v>34</v>
+      </c>
+      <c r="N30">
+        <v>0.91</v>
+      </c>
+      <c r="O30">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>0.006408972561586221</v>
+      </c>
+      <c r="L31">
+        <v>32</v>
+      </c>
+      <c r="M31">
+        <v>35</v>
+      </c>
+      <c r="N31">
+        <v>0.91</v>
+      </c>
+      <c r="O31">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>4961</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>0.00484402247626429</v>
+      </c>
+      <c r="L32">
+        <v>25</v>
+      </c>
+      <c r="M32">
+        <v>29</v>
+      </c>
+      <c r="N32">
+        <v>0.86</v>
+      </c>
+      <c r="O32">
+        <v>0.14</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>5136</v>
       </c>
     </row>
   </sheetData>
